--- a/biology/Botanique/Mapo_doufu/Mapo_doufu.xlsx
+++ b/biology/Botanique/Mapo_doufu/Mapo_doufu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le màpó dòufǔ (chinois : 麻婆豆腐 ; pinyin : mápó dòufu ; litt. « tofu épicé de grand-mère »,) est un plat de la cuisine du Sichuan dont la popularité s'est étendue à l'ensemble de la Chine, Taïwan, ainsi qu'au Japon (où il est prononcé « mābō dōfu ») et en Corée (coréen : 마파두부, mapa dubu). Il est devenu un classique de la cuisine familiale et peut se trouver dans la majorité des restaurants chinois, même ceux spécialisés dans d'autres cuisines régionales, ainsi que dans des restaurants coréens ou japonais.
